--- a/varselect/simulations/simulation1.result.xlsx
+++ b/varselect/simulations/simulation1.result.xlsx
@@ -399,142 +399,142 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.119</v>
+        <v>0.109</v>
       </c>
       <c r="C2">
-        <v>0.189</v>
+        <v>0.094</v>
       </c>
       <c r="D2">
-        <v>0.252</v>
+        <v>0.203</v>
       </c>
       <c r="E2">
-        <v>0.321</v>
+        <v>0.313</v>
       </c>
       <c r="F2">
-        <v>0.294</v>
+        <v>0.299</v>
       </c>
       <c r="G2">
-        <v>0.279</v>
+        <v>0.278</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
+        <v>0.136</v>
+      </c>
+      <c r="B3">
+        <v>0.225</v>
+      </c>
+      <c r="C3">
         <v>0.204</v>
       </c>
-      <c r="B3">
-        <v>0.174</v>
-      </c>
-      <c r="C3">
-        <v>0.369</v>
-      </c>
       <c r="D3">
-        <v>1.383</v>
+        <v>1.113</v>
       </c>
       <c r="E3">
-        <v>0.366</v>
+        <v>0.385</v>
       </c>
       <c r="F3">
-        <v>0.348</v>
+        <v>0.378</v>
       </c>
       <c r="G3">
-        <v>0.334</v>
+        <v>0.329</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.09</v>
+        <v>0.052</v>
       </c>
       <c r="B4">
-        <v>0.136</v>
+        <v>0.095</v>
       </c>
       <c r="C4">
-        <v>0.262</v>
+        <v>0.089</v>
       </c>
       <c r="D4">
-        <v>0.767</v>
+        <v>0.459</v>
       </c>
       <c r="E4">
-        <v>0.31</v>
+        <v>0.275</v>
       </c>
       <c r="F4">
-        <v>0.285</v>
+        <v>0.264</v>
       </c>
       <c r="G4">
-        <v>0.284</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.017</v>
+        <v>0.007</v>
       </c>
       <c r="B5">
-        <v>0.06800000000000001</v>
+        <v>0.101</v>
       </c>
       <c r="C5">
-        <v>0.182</v>
+        <v>0.075</v>
       </c>
       <c r="D5">
-        <v>0.262</v>
+        <v>0.232</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.012</v>
+        <v>0.001</v>
       </c>
       <c r="B6">
-        <v>0.233</v>
+        <v>0.27</v>
       </c>
       <c r="C6">
-        <v>0.163</v>
+        <v>0.072</v>
       </c>
       <c r="D6">
-        <v>0.477</v>
+        <v>0.451</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.023</v>
+        <v>0.011</v>
       </c>
       <c r="B7">
-        <v>0.06900000000000001</v>
+        <v>0.134</v>
       </c>
       <c r="C7">
-        <v>0.388</v>
+        <v>0.185</v>
       </c>
       <c r="D7">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="E7">
-        <v>0.203</v>
+        <v>0.165</v>
       </c>
       <c r="F7">
-        <v>0.367</v>
+        <v>0.306</v>
       </c>
       <c r="G7">
-        <v>0.434</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.051</v>
+        <v>0.025</v>
       </c>
       <c r="B8">
-        <v>0.043</v>
+        <v>0.109</v>
       </c>
       <c r="C8">
-        <v>0.394</v>
+        <v>0.219</v>
       </c>
       <c r="D8">
-        <v>0.493</v>
+        <v>0.415</v>
       </c>
       <c r="E8">
-        <v>0.231</v>
+        <v>0.217</v>
       </c>
       <c r="F8">
-        <v>0.407</v>
+        <v>0.356</v>
       </c>
       <c r="G8">
-        <v>0.426</v>
+        <v>0.448</v>
       </c>
     </row>
   </sheetData>

--- a/varselect/simulations/simulation1.result.xlsx
+++ b/varselect/simulations/simulation1.result.xlsx
@@ -399,68 +399,68 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.109</v>
+        <v>0.108</v>
       </c>
       <c r="C2">
-        <v>0.094</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="D2">
-        <v>0.203</v>
+        <v>0.189</v>
       </c>
       <c r="E2">
-        <v>0.313</v>
+        <v>0.293</v>
       </c>
       <c r="F2">
-        <v>0.299</v>
+        <v>0.285</v>
       </c>
       <c r="G2">
-        <v>0.278</v>
+        <v>0.289</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.136</v>
+        <v>0.111</v>
       </c>
       <c r="B3">
-        <v>0.225</v>
+        <v>0.159</v>
       </c>
       <c r="C3">
-        <v>0.204</v>
+        <v>0.144</v>
       </c>
       <c r="D3">
-        <v>1.113</v>
+        <v>0.846</v>
       </c>
       <c r="E3">
-        <v>0.385</v>
+        <v>0.331</v>
       </c>
       <c r="F3">
-        <v>0.378</v>
+        <v>0.317</v>
       </c>
       <c r="G3">
-        <v>0.329</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.052</v>
+        <v>0.074</v>
       </c>
       <c r="B4">
-        <v>0.095</v>
+        <v>0.125</v>
       </c>
       <c r="C4">
-        <v>0.089</v>
+        <v>0.126</v>
       </c>
       <c r="D4">
-        <v>0.459</v>
+        <v>0.598</v>
       </c>
       <c r="E4">
-        <v>0.275</v>
+        <v>0.301</v>
       </c>
       <c r="F4">
-        <v>0.264</v>
+        <v>0.3</v>
       </c>
       <c r="G4">
-        <v>0.26</v>
+        <v>0.301</v>
       </c>
     </row>
     <row r="5">
@@ -468,73 +468,73 @@
         <v>0.007</v>
       </c>
       <c r="B5">
-        <v>0.101</v>
+        <v>0.103</v>
       </c>
       <c r="C5">
-        <v>0.075</v>
+        <v>0.108</v>
       </c>
       <c r="D5">
-        <v>0.232</v>
+        <v>0.246</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="B6">
-        <v>0.27</v>
+        <v>0.265</v>
       </c>
       <c r="C6">
-        <v>0.072</v>
+        <v>0.125</v>
       </c>
       <c r="D6">
-        <v>0.451</v>
+        <v>0.473</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.011</v>
+        <v>0.019</v>
       </c>
       <c r="B7">
-        <v>0.134</v>
+        <v>0.126</v>
       </c>
       <c r="C7">
-        <v>0.185</v>
+        <v>0.188</v>
       </c>
       <c r="D7">
-        <v>0.36</v>
+        <v>0.382</v>
       </c>
       <c r="E7">
-        <v>0.165</v>
+        <v>0.174</v>
       </c>
       <c r="F7">
-        <v>0.306</v>
+        <v>0.3</v>
       </c>
       <c r="G7">
-        <v>0.438</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.025</v>
+        <v>0.029</v>
       </c>
       <c r="B8">
-        <v>0.109</v>
+        <v>0.102</v>
       </c>
       <c r="C8">
-        <v>0.219</v>
+        <v>0.187</v>
       </c>
       <c r="D8">
-        <v>0.415</v>
+        <v>0.399</v>
       </c>
       <c r="E8">
-        <v>0.217</v>
+        <v>0.208</v>
       </c>
       <c r="F8">
-        <v>0.356</v>
+        <v>0.325</v>
       </c>
       <c r="G8">
-        <v>0.448</v>
+        <v>0.434</v>
       </c>
     </row>
   </sheetData>

--- a/varselect/simulations/simulation1.result.xlsx
+++ b/varselect/simulations/simulation1.result.xlsx
@@ -399,91 +399,91 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.076</v>
+        <v>0.012</v>
       </c>
       <c r="D2">
-        <v>0.038</v>
+        <v>0.006</v>
       </c>
       <c r="G2">
-        <v>0.259</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.091</v>
+        <v>0.006</v>
       </c>
       <c r="C3">
-        <v>0.11</v>
+        <v>0.013</v>
       </c>
       <c r="D3">
-        <v>0.459</v>
+        <v>0.031</v>
       </c>
       <c r="G3">
-        <v>0.286</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.052</v>
+        <v>0.003</v>
       </c>
       <c r="C4">
-        <v>0.096</v>
+        <v>0.013</v>
       </c>
       <c r="D4">
-        <v>0.289</v>
+        <v>0.022</v>
       </c>
       <c r="G4">
-        <v>0.268</v>
+        <v>0.06800000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.007</v>
+        <v>0.001</v>
       </c>
       <c r="C5">
-        <v>0.081</v>
+        <v>0.013</v>
       </c>
       <c r="D5">
-        <v>0.075</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.079</v>
+        <v>0.013</v>
       </c>
       <c r="D6">
-        <v>0.043</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.105</v>
+        <v>0.012</v>
       </c>
       <c r="D7">
-        <v>0.065</v>
+        <v>0.007</v>
       </c>
       <c r="G7">
-        <v>0.396</v>
+        <v>0.167</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.011</v>
+        <v>0.001</v>
       </c>
       <c r="C8">
-        <v>0.115</v>
+        <v>0.013</v>
       </c>
       <c r="D8">
-        <v>0.113</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="G8">
-        <v>0.401</v>
+        <v>0.167</v>
       </c>
     </row>
   </sheetData>
